--- a/data/hotels_by_city/Dallas/Dallas_shard_332.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>383krhodes</t>
+  </si>
+  <si>
     <t>06/11/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Breakfast was the worst I’ve ever seen in my life the crew was rude and the employee came to my room and accused me of walking out in the bill when breakfast was included with my room. Highly upset with thatMore</t>
   </si>
   <si>
+    <t>Hudd01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r577480945-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>The only issue I had was the shower did not get very hot. But this wasn't a major problem for me.  I would definitely stay here again next time I travel to this area.  The breakfast was great.  They had the best pancakes that I have ever ate.More</t>
   </si>
   <si>
+    <t>Leslie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r583841471-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>This hotel was what I expect of Hilton Garden Inns.  The room was clean and everything was in good repair.  The staff was very friendly and exceptionallywelcoming.  The kitchen was shorthanded on two of the holiday weekend days.  The two superstars running the show were awesome.  Special props for Rick and Keyondray, they cooked, cashiered, cleaned, served, bussed, and nobody had to wait for anything.  They were pleasant, never appeared stressed, and took care of business.The ONE area I would say was not 100% was housekeeping.  They came in and cleaned daily during our 4 night stay, but did not restock the amenities in the restroom.  I actually use the shampoo and conditioner, but not if it's not there.  Clean towels are a plus, as well.  Missed them.  Overall, a good experience.  Thank you all!More</t>
   </si>
   <si>
+    <t>tasciari</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r582929416-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>My husband and I stayed here when we were attending a wedding.  We liked the hotel overall, and we knew that we should expect to see traffic and delays due to the construction going on around the hotel.  The hotel lobby was nice.  We ended up in a room that had a lot of tiles that appeared to be loose and the grout crumbling.  I also have to say that the bed was not comfortable.  It was very firm and not what I'm used to for the Hilton hotel chains.  I've been a diamond member for a few years, so I I've stayed at a lot of Hilton hotels.  The price for this hotel is reasonable.More</t>
   </si>
   <si>
+    <t>Sara N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r582634698-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>I have stayed in plenty of hotels and I was truly impressed with the level of customer service and how pleasant all of the staff was during our stay.  When we checked in, there were three very nice gentlemen.  When we requested an extra blanket they were very nice about it.  And in the morning during breakfast they were also great.  I don't normally leave reviews but I thought this was worth it.  As for the hotel itself, it is getting a little dated but nothing horrible.More</t>
   </si>
   <si>
+    <t>mtntrvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r578863158-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Usually Hilton properties are clean and comfortable. This HGI is neither. The room carpet was not clean, chair dirty, and there was a musty odor in the room. All of the treadmills in the exercise room are broken. Horrible stay. Definitely not good for business travelers. I frequently come to this area for work and will never stay here again.More</t>
   </si>
   <si>
+    <t>Doretha F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r575247801-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -343,6 +364,9 @@
   </si>
   <si>
     <t>The shuttle to &amp; from the Ft. Worth Stockyards for a concert was convenient and the driver (I believe his name was Daniel) was extremely knowledgeable about the area.  We appreciated his help with the dinner options!More</t>
+  </si>
+  <si>
+    <t>144benedictad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r574630959-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -367,6 +391,9 @@
 Thirdly, I reported the incident about my knee to the Front Desk Clerk the following morning because my knee was swollen and in pain. I asked the Front Desk Clerk for the Hotel Manager, but since he wasn't there at the time, she provided me with an email address to contact not only him, but also the Housekeeping Manager.  I subsequently sent an email to the Hotel and Housekeeping...My one night stay at The Hilton Garden Inn Fort Worth/Fossil Creek on March 25, 2018 was a terrible one. First of all, the hotel is not as beautiful as the other Hilton Garden Inn Hotels in the area. It reminded me more of one of those military type barracks that I've stayed at during my many years in the Army. The website states that it's a resort-style hotel, but I cannot attest to that statement because I it doesn't have the features of a resort.Secondly the room that I stayed in was much smaller than what I am used to. It was so small that I injured my knee from the exposed bed frame in the room. The pictures of the exposed bed-frame is also proudly highlighted as one of the hotel photos on the Hilton Hotels website and app.  That particular hotel is about the only one that I've stayed at with a bed-frame exposed like that, and I have stayed at numerous Hilton Hotels across the U.S.Thirdly, I reported the incident about my knee to the Front Desk Clerk the following morning because my knee was swollen and in pain. I asked the Front Desk Clerk for the Hotel Manager, but since he wasn't there at the time, she provided me with an email address to contact not only him, but also the Housekeeping Manager.  I subsequently sent an email to the Hotel and Housekeeping Managers at the hotel, and they both just ignored my email.  I went to an Urgent Care Unit in the Area the following day because I had difficulty walking, and still to this date, no one from that hotel have contacted me to inquire about my knee. I am in constant pain, and they have shown not an ounce of empathy for what I have and is still dealing with.  It disgusts me how people who are in  those managerial positions treat others in a non-caring way.  I have a medical bill that has to be paid, and because those individuals at that establishment refusal to acknowledge what occurred, I am stuck with that bill, and who knows what other bills that the injury may bring me because I  am still in pain. To all who may read my review, and if you are planning to stay at the hotel, please be careful when you are moving around in the room.  The rooms are very small, and you may end up hurting your knee like how I did. If I could have given that hotel "0 STARS" then I would have done exactly that because despite of what occurred they still charged my credit card.  Those individuals don't deserve to serve the public positions as such.More</t>
   </si>
   <si>
+    <t>bmlee0311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r574594159-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -382,6 +409,9 @@
     <t>This location has a lot of potential but they seem to miss the mark. Location wise, it is conveniently located and easy to access.  It has excellent curb appeal and a visually appealing lobby. Unfortunately, the rooms, services and fitness center make this a less than desirable location. More</t>
   </si>
   <si>
+    <t>mindys965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r568911936-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -406,6 +436,9 @@
     <t>We stayed 2 nights.  The outside of room was missing the room number, which was on the floor across the hall and the wall paper outside our room was mostly off the wall and showed signs of mold.  The room itself was adequate, but did appear there was some sort of water damage in bathroom.More</t>
   </si>
   <si>
+    <t>MJ M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r557409191-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -433,6 +466,9 @@
     <t>Need more staff, particularly at breakfast. Hallways were noisy and pillows are very uncomfortable. Location next to highway is noisy. As Hilton Honors Gold members we expected a higher quality of service but unfortunately were dissatisfied. More</t>
   </si>
   <si>
+    <t>Taradoula</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r557394929-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -448,6 +484,9 @@
     <t>This Hilton Garden Inn was very clean and well-managed, as I expect from this brand. There are not many places to eat or shop nearby but it's convenient to I-35 and about 10 minutes to downtown Fort Worth.More</t>
   </si>
   <si>
+    <t>Michael O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r556016359-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -472,6 +511,9 @@
     <t>I found this hotel to be new and clean with friendly staff and considered it a good value for the money, as a mid-range hotel for my business travel. Parking and highway access were all very convenient. More</t>
   </si>
   <si>
+    <t>Badgelady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r554763368-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -496,6 +538,9 @@
     <t>This is our second stay here in recent months.  First visit was very enjoyable with no glitches.  This stay was a bit problematic. Room was clean and comfy...fridge and microwave.  But, plumbing problem at check in meant no immediate hot water...but was corrected within an hour.  At breakfast there was no internet wifi connection in the lobby area.  The regular coffee ran out and was replaced with a pot of hot water.  Another long wait for coffee ensued.  Wound up with milk for my very excellently cooked bacon and cheese omelette, which might be the high point of this stay. More</t>
   </si>
   <si>
+    <t>Toobusy2leave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r554470302-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -520,6 +565,9 @@
     <t>I chose this hotel due to its location and the great rate offered for this particular time frame.  I knew it was going to be too cold to be outside so I also liked the fact that it had an indoor pool and a restaurant onsite.  We took advantage of both the pool and the restaurant!  Nice relaxing time away from everyday life!More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r554081537-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -541,6 +589,9 @@
     <t>I've stayed here on multiple occasions, largely because of the location, clean facility, friendly staff, AND the great service I get from the morning breakfast crew. On my second morning there, Christinne in the kitchen remembered my order and duplicated it perfectly. I have many choices in this area and always come back to HGI Fossil Creek.More</t>
   </si>
   <si>
+    <t>greggesi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r552766886-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -559,6 +610,9 @@
     <t>I stay in HGI's across the west 2 or 3 nights a week; however, this time dinner was unique and outstanding.  While the menu is the same at all of the hotels, the salmon and dessert prepared by their Chef (Willie Venney) was easily the best I've every had.  It was perfectly cooked, the rice was warm and the vegetables were cooked but perfectly crunchy.  If you are staying at this hotel, it is worth dining in.  Ask for Willie, his food is good but his service and the service of the entire staff was perfect!  GREAT JOB!More</t>
   </si>
   <si>
+    <t>bazza_aus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r551356163-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -583,6 +637,9 @@
     <t>This was our first stop off the plane from Australia. From the moment we walked in the staff were so friendly, the hotel lobby is fresh and inviting (free coffee available). Our room was an awesome size and everything that we needed. Utilised the shuttle service (ran after 5pm), there are a few food items, drinks etc to purchase at reception a great extra. There is a 7eleven short walk. Also had breakfast, cooked ($10.95 US) which was great. Think it was $5.95 for continental.We used Uber and Lyft to get around and cost under $10 per ride not far from the stockyards etc.Thank you to all the awesome staff who made our few nights in Fort Worth FANTASTIC! More</t>
   </si>
   <si>
+    <t>gofishWhitehouse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r551344815-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -598,6 +655,9 @@
     <t>I stay every week this is extremely excellent staff everyone treats me very well that’s why keep coming Back. I have to give an extreme shout out to the restaurant staff Latonya ,Willie,Patrice the manager she’s always working and The new trainer named Justis. Don’t forgetAbout the front desk Giselle shes awesome. I also can’t forget about Isaac he’s fantastic and very welcoming. The front desk manager is polite also DanielMore</t>
   </si>
   <si>
+    <t>wade a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r551026628-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -640,6 +700,9 @@
     <t>The price of the room was unbeatable. I was looking for a cheap place to stay, but I still wanted to be in a decent room. This Hilton Garden Inn was very clean and the staff was friendly. It far exceeded my expectations. I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Brian F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r548371806-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -667,6 +730,9 @@
     <t>This was a quick holiday junket to visit friends and this property was PERFECT.  Typical Hilton quality but the breakfast was something extra special.  Sham and Willie Venney teamed up behind the grill to provide a real treat that FAR exceeded my expectations.  This place will definitely get filed away on my list of repeat visits.More</t>
   </si>
   <si>
+    <t>petercF9832XH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r548155666-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -691,6 +757,9 @@
     <t>We had a great time and the price was right for a short Uber to the Stockyards! 4.2 miles was nothing for the excellent price of our stay. Staying any closer would be a waste of money when you don't plan to just stay in your room the whole time!More</t>
   </si>
   <si>
+    <t>533austinw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r547561340-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -715,6 +784,9 @@
     <t>This hotel is really a steal for the price. Room service went above and beyond, the staff answers every question in a timely manner and when you ask for extra items I.e. blankets, pillows, etc the staff goes above and beyond every step of the way.More</t>
   </si>
   <si>
+    <t>Jeff-GSE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r546398772-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -739,6 +811,9 @@
     <t>Sham is a great chef. Poached eggs were done perfectly which almost no one else can seem to do. Hash browns are crispy. Bacon is crispy. Omelets made to order are great. Fresh fruit with blackberries and raspberries. Sham decorates the plates with garnishes like a 4 star restaurant. We learned to tell GPS to ignore highways because most of the highways are under construction and so many highways criss cross that GPS never is sure exactly which one you are on.More</t>
   </si>
   <si>
+    <t>Stephen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r542910540-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -766,6 +841,9 @@
     <t>This is a good hotel, great staff and has an indoor heated pool and spa which we enjoyed.  Whilst it appears to be in the middle of nowhere there a a number of restaurants within a couple of miles and it's not hard finding your way into town by car from this location.More</t>
   </si>
   <si>
+    <t>aschtunh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r542932395-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -805,6 +883,9 @@
     <t>The service I received was very courteous and professional, the entire staff went out of their way to make sure I was comfortable.  The room was very clean.  Breakfast was great and the warm cookies in the evening were excellent.More</t>
   </si>
   <si>
+    <t>charleswK9956DD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r537610789-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -832,6 +913,9 @@
     <t>Its a average stay as far as a Hilton property. The location is difficult because of construction but will get better once 35 is complete. I'm not use to paying for breakfast at Hilton properties. Overall the Hilton property is nice and clean.More</t>
   </si>
   <si>
+    <t>327allenl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r534500367-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -856,6 +940,9 @@
     <t>Clean and has a fresh coat of brightness.  Staff is professional and accommodating.  Breakfast was served hot and well prepared as ordered.  Cleaning staff was quick and efficient. Good proximity to reasonable choices of restaurants.More</t>
   </si>
   <si>
+    <t>susanmT7739EJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r532010006-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -880,6 +967,9 @@
     <t>Nice stay. Noisy ac system but convenient for Uber to stockyards and very nice day facility and pleasant staff. GPS gave weird directions to get there due to construction . But easy off and on 35w which was nice!More</t>
   </si>
   <si>
+    <t>java53079</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r531861695-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -904,6 +994,9 @@
     <t>Great hotel, wonderful staff, good breakfast. I think the breakfast was a bit overpriced for what you get and compared to other hotels but it was tasty. The staff throughout the hotel is very friendly and helpful. More</t>
   </si>
   <si>
+    <t>CobaltConnection</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r531494414-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1015,9 @@
     <t>First time here.  Ample parking and easy to find.  Very friendly staff and service.  Breakfast and bar area open and well served. Rooms are large, quiet and well appointed.  Close to interstates and Fort Worth. Gas and 7-11 is one block away.More</t>
   </si>
   <si>
+    <t>seemyeyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r529808419-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1039,9 @@
     <t>Very quiet spot. It is not the easiest place to get to because of all the construction that is going on. The people were extra friendly. I is pretty quaint... They have a breakfast and dinner restaurant food cooked to order. And a small bar area that works well. Overall it was a good spot for a one day stop in. Now it cost me about thirty bucks to get a uber to the DFW airport. (non peak time...) Really clean rooms at a good price.More</t>
   </si>
   <si>
+    <t>Shawn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r528575825-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -952,15 +1051,15 @@
     <t>09/30/2017</t>
   </si>
   <si>
-    <t>Shawn H</t>
-  </si>
-  <si>
     <t>Great hotel and reasonably priced. Convenient location for business and entertaining in Fort Worth area. Very good service. Had last minute schedule changes and they graciously accommodated adjustments. MoreShow less</t>
   </si>
   <si>
     <t>Great hotel and reasonably priced. Convenient location for business and entertaining in Fort Worth area. Very good service. Had last minute schedule changes and they graciously accommodated adjustments. More</t>
   </si>
   <si>
+    <t>alicialouthomas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r527659597-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1078,9 @@
     <t>Great hotel.  Room smelled a bit like a locker room. However, service was great. We asked for extra pillows and received them promptly and without any fuss. Enjoyed dinner at the hotel, it was good, not great, but that's what we expected. However, I ordered a mojito, and what I received was essentially a lime daiquiri on the rocks. No fresh mint. But seriously folks. No big deal. We'd definitely stay again, the drive to the Fort Worth Stockyards was a 5-10 drive on city streets, best and shortest drive yet we've found other than staying IN the Stockyards. More</t>
   </si>
   <si>
+    <t>Bernardo F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r526009455-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1099,9 @@
     <t>It was a nice representation of the brand.  The property was well maintained and the room was comfortable and clean.  Mattress was fine.  A train horn in the distance, but otherwise a quiet property.  Nice staff and a good indoor and outdoor pool too.  Decent workout room, price was reasonable.More</t>
   </si>
   <si>
+    <t>eilat59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r525582455-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1120,9 @@
     <t>Spotlessly clean Hilton Garden Inn located located in an off beat location surrounded by nothing - but the staff is incredible. Friendly, accommodating, professional and with a 'can do' attitude.  They more then made up for the strange location. If my travels ever bring me here again I would not hesitate to return. More</t>
   </si>
   <si>
+    <t>Chris G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r525471635-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1144,9 @@
     <t>Breakfast guys were great, Wille and the Chef take good care of you. Only issue we had is when we arrived, I asked if the poll was heated. they said no, but we have a hot tub. they next day i discovered there is a heated indoor pool and a non heated outdoor pool.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r523283763-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1165,9 @@
     <t>The lovely Front Desk Clerk, Sarah is Amazing. Always smiling and ready to assist you with any issues. The Chef, Sham made the best eggs/omelets. The breakfast buffet is one you do not want to miss. Patrice, the manager and Mya our server makes dinner and drinks at the bar fun and relaxing. They have made me feel welcomed and at home.  This staff makes this hotel great. More</t>
   </si>
   <si>
+    <t>866jacquelync</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r522145388-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1186,9 @@
     <t>The hotel personnel were great, the accommodations were better than we expected.  We enjoyed the shopping in the area and were close to friends and family.  We were having so much fun we decided to stay an additional night.More</t>
   </si>
   <si>
+    <t>852denetras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r521791379-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1219,9 @@
     <t>What makes a Great Hotel outside of the Amenities is Awesome Staff. Danalle at the front desk was very helpful and upbeat. She gave us a warm welcome and helped answer important questions we had about the City during our Trip. The Hotel it self is 3 Stars but I'm giving it a 5 because of Danalle. Awesome Service!</t>
   </si>
   <si>
+    <t>chalmask</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r516485264-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1243,9 @@
     <t>We had such an enjoyable stay! Loved having a relaxing day at the pool before attending a show nearby at Billy Bob's. Staff was friendly, helpful and went above and beyond to make our stay one to remember!More</t>
   </si>
   <si>
+    <t>jamesrZ3554UI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r512481317-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1270,9 @@
     <t>This was our second time at this hotel. We Will return. Quiet and very clean. Enjoyed the comp drinks at the entrance of hotel. Includes coffee and herbal tea. We have not rated at hotel yet. But will try next time. More</t>
   </si>
   <si>
+    <t>joy w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r511544427-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1291,9 @@
     <t>Nice property. Not bad very thorough on CC at check in. They seem nice, just doing their job. Chef great, wait staff great. Seem new, but ok. Meal good. Clean quiet environment. Construction makes it kinda hard to get to. Overall a good stay 1 night only. More</t>
   </si>
   <si>
+    <t>HappyTreesforBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r510046918-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1183,6 +1312,9 @@
     <t>We spent the weekend in Ft Worth. Myself, husband, and 6 year old. Check in/out was very easy and the room itself was great. We were on the first floor and very close to the lobby, so it was easy to get in and out without a fuss. Although there was some construction on the highway, it wasn't difficult leaving or coming back from the day out to the hotel. Would recommend staying. My only reasoning for not giving 5 stars would be on our first night, it sounded like a construction zone in the rooms above us at about 1:30 in the morning. Lots of stomping and sounding like people jumping or dropping heay things multiple times. It woke my husband and myself up, but after about 20 minutes, it stopped. Not sure what was going on there. There was also what we assumed was a break in the first morning we were there. A commercial truck was parked close to the front (and very close to the highway exit) and we walked outside to police officers around the truck and there was shattered glass on the ground indicating the window may have been smashed. This is an assumption based on what we saw, but it served as a reminder to be safe.More</t>
   </si>
   <si>
+    <t>Patricia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r509723063-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1333,9 @@
     <t>I booked this hotel for our 30th Wedding Anniversary. This was our first time to every come to Ft. Worth.   The room was very disappointing. It was not very clean, the bathroom toilet seat was almost completely off, maintenance had to come in, there were awful stains on the walls.  The room had a smell, so glad I had air freshener with us.   The staff were very friendly and made us feel welcome.  The staff in the restaurant were amazing also, so friendly and the food was delish.  Our last morning there the fire alarms went off and so we bailed out of our rooms, till all clear and went back and about an hour later, they went off again.....false alarms.  Even though the staff was great and friendly I don't think I would ever stay at this hotel again.  Just needs lots of improvements. The construction that was going on made it super difficult to get to the hotel and maneuver our outings.  This really wasn't the hotels fault, but saying this to just let people know .More</t>
   </si>
   <si>
+    <t>Cheri M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r506869320-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1222,6 +1357,9 @@
     <t>No shuttle service we saw shuttles from all surrounding hotels. Also the beds are way too firm. I left hotel down in my back. Other than the two things listed our stay was great. We will stay at a different hotel next time because others have shuttle service.More</t>
   </si>
   <si>
+    <t>Cynthia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r506565965-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1376,9 @@
   </si>
   <si>
     <t>This is just a regular hotel in appearance but The hotel staff make this hotel awesome!  You never encounter "a grump" here.  Everyone is helpful and always with kindness and a smile. The breakfast is very, very good.  Did not have the opportunity to try supper. More</t>
+  </si>
+  <si>
+    <t>Muslimmomof3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r505291234-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1760,43 +1901,47 @@
       <c r="A2" t="n">
         <v>35612</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>154040</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1818,56 +1963,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35612</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>154041</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1889,56 +2038,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35612</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>19398</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1956,56 +2109,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35612</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>154042</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2023,47 +2180,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35612</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>23007</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
@@ -2080,56 +2241,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35612</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>154043</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2141,56 +2306,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35612</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>154044</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2212,56 +2381,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35612</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>154045</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2279,56 +2452,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35612</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>154046</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -2350,56 +2527,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35612</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>154047</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2417,56 +2598,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35612</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>154048</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2488,56 +2673,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35612</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>154049</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2559,56 +2748,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35612</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>133</v>
-      </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2630,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35612</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>115523</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2691,56 +2888,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35612</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>154050</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2762,56 +2963,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35612</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2829,56 +3034,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35612</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>154051</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2894,56 +3103,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35612</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>154052</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2955,47 +3168,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35612</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>154053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -3012,56 +3229,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35612</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>154054</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3079,13 +3300,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -3098,37 +3319,37 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3150,56 +3371,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35612</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>10713</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3215,56 +3440,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35612</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>154055</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3286,56 +3515,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35612</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>154056</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3357,56 +3590,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35612</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>154057</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3418,56 +3655,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35612</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>12018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3483,56 +3724,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35612</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>154058</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3554,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
@@ -3573,37 +3818,37 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3625,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35612</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>154059</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3696,56 +3945,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35612</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>154060</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3767,56 +4020,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35612</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>154061</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3838,56 +4095,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35612</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>154062</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3909,56 +4170,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35612</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>21208</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3970,56 +4235,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X34" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35612</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>39558</v>
+      </c>
+      <c r="C35" t="s">
+        <v>331</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4037,56 +4306,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35612</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>50123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4098,56 +4371,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35612</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>154063</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J37" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4169,56 +4446,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X37" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35612</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>19763</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4232,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X38" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y38" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35612</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>154064</v>
+      </c>
+      <c r="C39" t="s">
+        <v>359</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4293,56 +4578,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X39" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y39" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35612</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>38038</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4360,56 +4649,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X40" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35612</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>374</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4421,56 +4714,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X41" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y41" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35612</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>154065</v>
+      </c>
+      <c r="C42" t="s">
+        <v>381</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K42" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4492,56 +4789,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X42" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35612</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>154066</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4563,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X43" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
@@ -4582,37 +4883,37 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4626,50 +4927,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35612</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>154067</v>
+      </c>
+      <c r="C45" t="s">
+        <v>399</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4691,56 +4996,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X45" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y45" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35612</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>154068</v>
+      </c>
+      <c r="C46" t="s">
+        <v>407</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4762,56 +5071,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="X46" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35612</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>68772</v>
+      </c>
+      <c r="C47" t="s">
+        <v>416</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4823,56 +5136,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X47" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35612</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>154069</v>
+      </c>
+      <c r="C48" t="s">
+        <v>423</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4888,56 +5205,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X48" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35612</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>13854</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -4955,56 +5276,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X49" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35612</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>63255</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5026,56 +5351,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X50" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y50" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35612</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>10211</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5097,56 +5426,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X51" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y51" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35612</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>154070</v>
+      </c>
+      <c r="C52" t="s">
+        <v>452</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="J52" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K52" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5164,13 +5497,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X52" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_332.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_332.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,474 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>383krhodes</t>
-  </si>
-  <si>
-    <t>06/11/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r608863748-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109156</t>
+  </si>
+  <si>
+    <t>608863748</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Another solid Hilton garden Inn</t>
+  </si>
+  <si>
+    <t>As one would expect this location is representative of the high standards set for HGI’s nationwide.I’ve stayed at at least a dozen different locations and this one is top notch.Clean rooms good service.Only issues I could comment on is they could use another server in the bar area. The poor gal on duty was trying to serve food pour drinks and bus tables. And for a Monday it was busy. Not overly so as she seemed to manage it all well but I think she could have used an extra set of hands.Other than that , nice place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>As one would expect this location is representative of the high standards set for HGI’s nationwide.I’ve stayed at at least a dozen different locations and this one is top notch.Clean rooms good service.Only issues I could comment on is they could use another server in the bar area. The poor gal on duty was trying to serve food pour drinks and bus tables. And for a Monday it was busy. Not overly so as she seemed to manage it all well but I think she could have used an extra set of hands.Other than that , nice place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r602109718-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>602109718</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable, with a welcoming staff!</t>
+  </si>
+  <si>
+    <t>This hotel provides all the essentials -- clean rooms and comfortable beds.The a la carte breakfast menu means that you can get exactly what you want without over paying for a complete buffet. I paid $2 for two eggs. Perfect!The bathroom had a spring-loaded door that closed automatically, but no fan. So after showering the mirrors were all steamy -- the trash can served as a door stop to air out the room ... awkward, but not a deal-breaker for a quiet hotel at a reasonable cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel provides all the essentials -- clean rooms and comfortable beds.The a la carte breakfast menu means that you can get exactly what you want without over paying for a complete buffet. I paid $2 for two eggs. Perfect!The bathroom had a spring-loaded door that closed automatically, but no fan. So after showering the mirrors were all steamy -- the trash can served as a door stop to air out the room ... awkward, but not a deal-breaker for a quiet hotel at a reasonable cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r607618437-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>607618437</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Good Food and Hopsitality</t>
+  </si>
+  <si>
+    <t>Food was great! Chef Rick did a great job cooking food.   it is nice to interact with him while he prepares your food.    Eggs were amazing.   Front desk was very nice and made sure our stay was great.   Good Job Crew!MoreShow less</t>
+  </si>
+  <si>
+    <t>Food was great! Chef Rick did a great job cooking food.   it is nice to interact with him while he prepares your food.    Eggs were amazing.   Front desk was very nice and made sure our stay was great.   Good Job Crew!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r607427005-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>607427005</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Breakfast made to order</t>
+  </si>
+  <si>
+    <t>Chef Rick was very gracious to my food preparation requests.  Ask him to make his special hash browns! I've never experienced anything like it.  Your breakfast can be made to order.  Quality service the entire stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Chef Rick was very gracious to my food preparation requests.  Ask him to make his special hash browns! I've never experienced anything like it.  Your breakfast can be made to order.  Quality service the entire stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r605371754-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>605371754</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Business Meeting</t>
+  </si>
+  <si>
+    <t>During our stay Mr. Rick Ponder provided exceptional customer service while ensuring that all of our needs where met with Breakfast and Snacks.  Job well done Mr. Ponder we really appreciate your service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r605045821-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>605045821</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Very impressed with the staff at this hotel.  From the front desk throughout the staff, you cannot ask for a better team.  They really showed they cared.  I felt like a long term guest, yet this was my first stay at this property.  Excellent value too!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Very impressed with the staff at this hotel.  From the front desk throughout the staff, you cannot ask for a better team.  They really showed they cared.  I felt like a long term guest, yet this was my first stay at this property.  Excellent value too!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r601973869-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>601973869</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Nastiness</t>
+  </si>
+  <si>
+    <t>Checked in late August 1st. As a frequent traveler I have learned to always check my sheets and mattress. See the attached pictures to see the nasty mattress pad and mattress at this hotel. They were booked for the night, so to their credit, they did find another hotel for me and paid for the night. No more Hilton Garden Inns for me— ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in late August 1st. As a frequent traveler I have learned to always check my sheets and mattress. See the attached pictures to see the nasty mattress pad and mattress at this hotel. They were booked for the night, so to their credit, they did find another hotel for me and paid for the night. No more Hilton Garden Inns for me— ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r598709364-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>598709364</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Lovely experience</t>
+  </si>
+  <si>
+    <t>We stayed here in order to be able to attend country music concerts 2 nights in a row.  This is an excellent home base location for touring Arlington and Ft Worth venues.  The staff is extremely courteous, helpful and responsive.  I would definitely stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here in order to be able to attend country music concerts 2 nights in a row.  This is an excellent home base location for touring Arlington and Ft Worth venues.  The staff is extremely courteous, helpful and responsive.  I would definitely stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r598592126-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>598592126</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfy</t>
+  </si>
+  <si>
+    <t>The hotel is easy to get to from I-35. The staff was very friendly. The hotel was well maintained and clean. They have 2 pools (indoor &amp; outdoor) which was nice to have the option. The WiFi worked good. No complimentary breakfast but there was complimentary coffee and water. We rsvp a room with 2 queens but our room had full size beds which was disappointing. However the beds were comfortable &amp; we slept great. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is easy to get to from I-35. The staff was very friendly. The hotel was well maintained and clean. They have 2 pools (indoor &amp; outdoor) which was nice to have the option. The WiFi worked good. No complimentary breakfast but there was complimentary coffee and water. We rsvp a room with 2 queens but our room had full size beds which was disappointing. However the beds were comfortable &amp; we slept great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r597900829-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597900829</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Not a bad stay. Staff was great, I had small issue with the bathroom I didn't complain but I mentioned on my way out. They gave me more points for my stay. They even extended my check out in case my meeting ran late with my morning meeting. Thanks again folks.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Not a bad stay. Staff was great, I had small issue with the bathroom I didn't complain but I mentioned on my way out. They gave me more points for my stay. They even extended my check out in case my meeting ran late with my morning meeting. Thanks again folks.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r596486385-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>596486385</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Didn't live up to the Hilton promise</t>
+  </si>
+  <si>
+    <t>Positive: wait staff and breakfast crew were really friendly and went out of their way to make sure guests felt appreciated. Great team. Amenities and the staff's abilities to meet bare minimums (both pools were closed, coffee maker didn't work, was unable to connect to the Internet during my stay) left a lot to be desired. MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Positive: wait staff and breakfast crew were really friendly and went out of their way to make sure guests felt appreciated. Great team. Amenities and the staff's abilities to meet bare minimums (both pools were closed, coffee maker didn't work, was unable to connect to the Internet during my stay) left a lot to be desired. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r596233864-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>596233864</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Total lack of guest service</t>
+  </si>
+  <si>
+    <t>We are from south Florida and have survived a few hurricanes.  So we are used to power outages, no t.v.,etc.  We are very understanding of such situations. We are also Hilton Honors members.  When we checked into the Garden Inn we were informed pool was down.  O.K. No big deal. We'll live.  I went online and had just finished some business correspondence when I noticed internet was out.  I could not send my letter and lost the info when I shut down. In addition the T.V. was out.  The elevator was out and the A/C was out.  O.K. It happens. My wife and I went to dinner expecting the power to be back on.  Of course we had to use the stairs.  No big deal.  We need the exercise.  When we came back from dinner we were informed that power was still out.  I asked about 2 complimentary breakfast passes.  The reply was we do not have complimentary breakfast passes.  Of course this is not true.  I thought I was being reasonable.  There were 2 coffee warmers in the lobby.  I asked if one was decaf.  The reply was those should have been put away.   We walked up the stairs to our room.  After 1/2 an hour with still no A/C I called the front desk to inquire about other hotels in the area.  I was told there were several close by.  I asked if she could call and make...We are from south Florida and have survived a few hurricanes.  So we are used to power outages, no t.v.,etc.  We are very understanding of such situations. We are also Hilton Honors members.  When we checked into the Garden Inn we were informed pool was down.  O.K. No big deal. We'll live.  I went online and had just finished some business correspondence when I noticed internet was out.  I could not send my letter and lost the info when I shut down. In addition the T.V. was out.  The elevator was out and the A/C was out.  O.K. It happens. My wife and I went to dinner expecting the power to be back on.  Of course we had to use the stairs.  No big deal.  We need the exercise.  When we came back from dinner we were informed that power was still out.  I asked about 2 complimentary breakfast passes.  The reply was we do not have complimentary breakfast passes.  Of course this is not true.  I thought I was being reasonable.  There were 2 coffee warmers in the lobby.  I asked if one was decaf.  The reply was those should have been put away.   We walked up the stairs to our room.  After 1/2 an hour with still no A/C I called the front desk to inquire about other hotels in the area.  I was told there were several close by.  I asked if she could call and make us a reservation.  She stated she could not.  After a bit of back and forth I asked Why not?  Her reply was that she could only do that when hotel was full.I called the Radisson and they were phenomenal, especially Devyn at the front desk.  We carried our luggage down the stairs.  When I told him the story he offered 2 complimentary breakfasts.  Long story but we plan on joining Radisson rewards and will probably cancel our Hilton rewards.  The Radisson rooms were great.  The service friendly and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are from south Florida and have survived a few hurricanes.  So we are used to power outages, no t.v.,etc.  We are very understanding of such situations. We are also Hilton Honors members.  When we checked into the Garden Inn we were informed pool was down.  O.K. No big deal. We'll live.  I went online and had just finished some business correspondence when I noticed internet was out.  I could not send my letter and lost the info when I shut down. In addition the T.V. was out.  The elevator was out and the A/C was out.  O.K. It happens. My wife and I went to dinner expecting the power to be back on.  Of course we had to use the stairs.  No big deal.  We need the exercise.  When we came back from dinner we were informed that power was still out.  I asked about 2 complimentary breakfast passes.  The reply was we do not have complimentary breakfast passes.  Of course this is not true.  I thought I was being reasonable.  There were 2 coffee warmers in the lobby.  I asked if one was decaf.  The reply was those should have been put away.   We walked up the stairs to our room.  After 1/2 an hour with still no A/C I called the front desk to inquire about other hotels in the area.  I was told there were several close by.  I asked if she could call and make...We are from south Florida and have survived a few hurricanes.  So we are used to power outages, no t.v.,etc.  We are very understanding of such situations. We are also Hilton Honors members.  When we checked into the Garden Inn we were informed pool was down.  O.K. No big deal. We'll live.  I went online and had just finished some business correspondence when I noticed internet was out.  I could not send my letter and lost the info when I shut down. In addition the T.V. was out.  The elevator was out and the A/C was out.  O.K. It happens. My wife and I went to dinner expecting the power to be back on.  Of course we had to use the stairs.  No big deal.  We need the exercise.  When we came back from dinner we were informed that power was still out.  I asked about 2 complimentary breakfast passes.  The reply was we do not have complimentary breakfast passes.  Of course this is not true.  I thought I was being reasonable.  There were 2 coffee warmers in the lobby.  I asked if one was decaf.  The reply was those should have been put away.   We walked up the stairs to our room.  After 1/2 an hour with still no A/C I called the front desk to inquire about other hotels in the area.  I was told there were several close by.  I asked if she could call and make us a reservation.  She stated she could not.  After a bit of back and forth I asked Why not?  Her reply was that she could only do that when hotel was full.I called the Radisson and they were phenomenal, especially Devyn at the front desk.  We carried our luggage down the stairs.  When I told him the story he offered 2 complimentary breakfasts.  Long story but we plan on joining Radisson rewards and will probably cancel our Hilton rewards.  The Radisson rooms were great.  The service friendly and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r594535949-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>594535949</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Nice place decent service</t>
+  </si>
+  <si>
+    <t>Clean room and nice indoor pool that is warm enough to swim in. The only thing lacking is a breakfast. I will definitely stay here again. Access is not bad either. I was afraid with the construction in the area it would be hard to get to, but it was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Clean room and nice indoor pool that is warm enough to swim in. The only thing lacking is a breakfast. I will definitely stay here again. Access is not bad either. I was afraid with the construction in the area it would be hard to get to, but it was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r594368991-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>594368991</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>They charge 100.00 dollars to use their towels. They are saying that 2 towels cost 100.00 dollars. So if plan on staying with them I would bring my own towels and wash rags. I have called multiply times to try to find a reason for this and nothing had been done.MoreShow less</t>
+  </si>
+  <si>
+    <t>They charge 100.00 dollars to use their towels. They are saying that 2 towels cost 100.00 dollars. So if plan on staying with them I would bring my own towels and wash rags. I have called multiply times to try to find a reason for this and nothing had been done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r592265074-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>592265074</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Trip to the Stockyards.</t>
+  </si>
+  <si>
+    <t>Our stay at the Hilton Garden Inn Fossil Creek was great.  From check-in to check-out, the staff was friendly and helpful.  Our room was clean and spacious with a mini fridge, microwave and a keurig coffee pot.  The kitchen crew was amazing.  We ate breakfast every morning.  You could order the buffet or a la carte and everything we tried was good.  The ride to the stockyards was only about 10 minutes.  We really enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Our stay at the Hilton Garden Inn Fossil Creek was great.  From check-in to check-out, the staff was friendly and helpful.  Our room was clean and spacious with a mini fridge, microwave and a keurig coffee pot.  The kitchen crew was amazing.  We ate breakfast every morning.  You could order the buffet or a la carte and everything we tried was good.  The ride to the stockyards was only about 10 minutes.  We really enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r592186166-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>592186166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright but.. smells like marijuana! </t>
+  </si>
+  <si>
+    <t>Just an average hotel, there was hair in my shower before any of us had used it. The stairwell in the back smelled like marijuana and so did the front of the hotel when you walked in. When we passed an gentleman employee when we smelled it we asked if it was indeed marijuana and you could tell he didn’t know what to say but he did shake us head yes. Not a great thing to have to say about a hotel but I tell it as it is! MoreShow less</t>
+  </si>
+  <si>
+    <t>Just an average hotel, there was hair in my shower before any of us had used it. The stairwell in the back smelled like marijuana and so did the front of the hotel when you walked in. When we passed an gentleman employee when we smelled it we asked if it was indeed marijuana and you could tell he didn’t know what to say but he did shake us head yes. Not a great thing to have to say about a hotel but I tell it as it is! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r591913817-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>591913817</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>We reserved late and ended up with an accessible room - and WOW what a spacious room and bathroom!</t>
+  </si>
+  <si>
+    <t>Great stay, great breakfast as usual at Hilton Garden Inns.  Because we made our reservation late, I guess, we ended up in an ADA room, which sometimes in the past has meant a strange shower or other inconvenience, but in this case I'd call it a bonus!  Big, spacious room and bathroom.  I would have avoided an accessible room given the choice, but after staying in it, I'd happily request it next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay, great breakfast as usual at Hilton Garden Inns.  Because we made our reservation late, I guess, we ended up in an ADA room, which sometimes in the past has meant a strange shower or other inconvenience, but in this case I'd call it a bonus!  Big, spacious room and bathroom.  I would have avoided an accessible room given the choice, but after staying in it, I'd happily request it next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r589558391-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>589558391</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>60th Birthday</t>
+  </si>
+  <si>
+    <t>I came here because of my Brother 60th Birthday.  My cousin and I stayed here.  99% of the staff I encountered was Awesome. I loved the location and the family atmosphere at the same time.  I would stay here again,  if I were ever to be on this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>I came here because of my Brother 60th Birthday.  My cousin and I stayed here.  99% of the staff I encountered was Awesome. I loved the location and the family atmosphere at the same time.  I would stay here again,  if I were ever to be on this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r589015760-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>589015760</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Nice spot</t>
+  </si>
+  <si>
+    <t>The desk clerk were very Nice and friendly,Clean lobby,has a bar and restraunt on sight.close to Cassidy club for night life lovers, accessible from i35.The Only negative thing the room was smelling a little dump, but overall nice spot for spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>The desk clerk were very Nice and friendly,Clean lobby,has a bar and restraunt on sight.close to Cassidy club for night life lovers, accessible from i35.The Only negative thing the room was smelling a little dump, but overall nice spot for spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r587949182-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>587949182</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Lies, just lies</t>
+  </si>
+  <si>
+    <t>The thing that made the trip the worst, was them charing us $600 over our actual rate. Over a week now and still not resolved, every time we call to have it fixed, it just got worse. They've charged me 3 times now and the total has raised to over $1000 on two cards for a 2 night stay that wasn't even all that amazing due to the stuffy rooms that is not like what the images show on their site.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>The thing that made the trip the worst, was them charing us $600 over our actual rate. Over a week now and still not resolved, every time we call to have it fixed, it just got worse. They've charged me 3 times now and the total has raised to over $1000 on two cards for a 2 night stay that wasn't even all that amazing due to the stuffy rooms that is not like what the images show on their site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r587263114-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>587263114</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Top Hilton quality!</t>
+  </si>
+  <si>
+    <t>This hotel is a wonderful little gem nestled just outside of downtown Fort Worth (about five miles). My boyfriend and I stayed here for a weekend and were very impressed with the property overall. The staff was friendly and attentive, the room was clean, and any special requests we had were accommodated. We will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a wonderful little gem nestled just outside of downtown Fort Worth (about five miles). My boyfriend and I stayed here for a weekend and were very impressed with the property overall. The staff was friendly and attentive, the room was clean, and any special requests we had were accommodated. We will definitely be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r586070131-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109156</t>
-  </si>
-  <si>
     <t>586070131</t>
   </si>
   <si>
@@ -177,22 +630,115 @@
     <t>Breakfast was the worst I’ve ever seen in my life the crew was rude and the employee came to my room and accused me of walking out in the bill when breakfast was included with my room. Highly upset with thatMoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded yesterday</t>
-  </si>
-  <si>
-    <t>Responded yesterday</t>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
   </si>
   <si>
     <t>Breakfast was the worst I’ve ever seen in my life the crew was rude and the employee came to my room and accused me of walking out in the bill when breakfast was included with my room. Highly upset with thatMore</t>
   </si>
   <si>
-    <t>Hudd01</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r583841471-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>583841471</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>I'd stay there again</t>
+  </si>
+  <si>
+    <t>This hotel was what I expect of Hilton Garden Inns.  The room was clean and everything was in good repair.  The staff was very friendly and exceptionallywelcoming.  The kitchen was shorthanded on two of the holiday weekend days.  The two superstars running the show were awesome.  Special props for Rick and Keyondray, they cooked, cashiered, cleaned, served, bussed, and nobody had to wait for anything.  They were pleasant, never appeared stressed, and took care of business.The ONE area I would say was not 100% was housekeeping.  They came in and cleaned daily during our 4 night stay, but did not restock the amenities in the restroom.  I actually use the shampoo and conditioner, but not if it's not there.  Clean towels are a plus, as well.  Missed them.  Overall, a good experience.  Thank you all!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was what I expect of Hilton Garden Inns.  The room was clean and everything was in good repair.  The staff was very friendly and exceptionallywelcoming.  The kitchen was shorthanded on two of the holiday weekend days.  The two superstars running the show were awesome.  Special props for Rick and Keyondray, they cooked, cashiered, cleaned, served, bussed, and nobody had to wait for anything.  They were pleasant, never appeared stressed, and took care of business.The ONE area I would say was not 100% was housekeeping.  They came in and cleaned daily during our 4 night stay, but did not restock the amenities in the restroom.  I actually use the shampoo and conditioner, but not if it's not there.  Clean towels are a plus, as well.  Missed them.  Overall, a good experience.  Thank you all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r582929416-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>582929416</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Hotel is nice.  Expect traffic due to construction.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here when we were attending a wedding.  We liked the hotel overall, and we knew that we should expect to see traffic and delays due to the construction going on around the hotel.  The hotel lobby was nice.  We ended up in a room that had a lot of tiles that appeared to be loose and the grout crumbling.  I also have to say that the bed was not comfortable.  It was very firm and not what I'm used to for the Hilton hotel chains.  I've been a diamond member for a few years, so I I've stayed at a lot of Hilton hotels.  The price for this hotel is reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here when we were attending a wedding.  We liked the hotel overall, and we knew that we should expect to see traffic and delays due to the construction going on around the hotel.  The hotel lobby was nice.  We ended up in a room that had a lot of tiles that appeared to be loose and the grout crumbling.  I also have to say that the bed was not comfortable.  It was very firm and not what I'm used to for the Hilton hotel chains.  I've been a diamond member for a few years, so I I've stayed at a lot of Hilton hotels.  The price for this hotel is reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r582634698-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>582634698</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Customer Service was outstanding</t>
+  </si>
+  <si>
+    <t>I have stayed in plenty of hotels and I was truly impressed with the level of customer service and how pleasant all of the staff was during our stay.  When we checked in, there were three very nice gentlemen.  When we requested an extra blanket they were very nice about it.  And in the morning during breakfast they were also great.  I don't normally leave reviews but I thought this was worth it.  As for the hotel itself, it is getting a little dated but nothing horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed in plenty of hotels and I was truly impressed with the level of customer service and how pleasant all of the staff was during our stay.  When we checked in, there were three very nice gentlemen.  When we requested an extra blanket they were very nice about it.  And in the morning during breakfast they were also great.  I don't normally leave reviews but I thought this was worth it.  As for the hotel itself, it is getting a little dated but nothing horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r578863158-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>578863158</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Usually Hilton properties are clean and comfortable. This HGI is neither. The room carpet was not clean, chair dirty, and there was a musty odor in the room. All of the treadmills in the exercise room are broken. Horrible stay. Definitely not good for business travelers. I frequently come to this area for work and will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Usually Hilton properties are clean and comfortable. This HGI is neither. The room carpet was not clean, chair dirty, and there was a musty odor in the room. All of the treadmills in the exercise room are broken. Horrible stay. Definitely not good for business travelers. I frequently come to this area for work and will never stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r577480945-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -213,9 +759,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded May 2, 2018</t>
   </si>
   <si>
@@ -225,120 +768,6 @@
     <t>The only issue I had was the shower did not get very hot. But this wasn't a major problem for me.  I would definitely stay here again next time I travel to this area.  The breakfast was great.  They had the best pancakes that I have ever ate.More</t>
   </si>
   <si>
-    <t>Leslie H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r583841471-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>583841471</t>
-  </si>
-  <si>
-    <t>05/30/2018</t>
-  </si>
-  <si>
-    <t>I'd stay there again</t>
-  </si>
-  <si>
-    <t>This hotel was what I expect of Hilton Garden Inns.  The room was clean and everything was in good repair.  The staff was very friendly and exceptionallywelcoming.  The kitchen was shorthanded on two of the holiday weekend days.  The two superstars running the show were awesome.  Special props for Rick and Keyondray, they cooked, cashiered, cleaned, served, bussed, and nobody had to wait for anything.  They were pleasant, never appeared stressed, and took care of business.The ONE area I would say was not 100% was housekeeping.  They came in and cleaned daily during our 4 night stay, but did not restock the amenities in the restroom.  I actually use the shampoo and conditioner, but not if it's not there.  Clean towels are a plus, as well.  Missed them.  Overall, a good experience.  Thank you all!MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
-    <t>This hotel was what I expect of Hilton Garden Inns.  The room was clean and everything was in good repair.  The staff was very friendly and exceptionallywelcoming.  The kitchen was shorthanded on two of the holiday weekend days.  The two superstars running the show were awesome.  Special props for Rick and Keyondray, they cooked, cashiered, cleaned, served, bussed, and nobody had to wait for anything.  They were pleasant, never appeared stressed, and took care of business.The ONE area I would say was not 100% was housekeeping.  They came in and cleaned daily during our 4 night stay, but did not restock the amenities in the restroom.  I actually use the shampoo and conditioner, but not if it's not there.  Clean towels are a plus, as well.  Missed them.  Overall, a good experience.  Thank you all!More</t>
-  </si>
-  <si>
-    <t>tasciari</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r582929416-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>582929416</t>
-  </si>
-  <si>
-    <t>05/26/2018</t>
-  </si>
-  <si>
-    <t>Hotel is nice.  Expect traffic due to construction.</t>
-  </si>
-  <si>
-    <t>My husband and I stayed here when we were attending a wedding.  We liked the hotel overall, and we knew that we should expect to see traffic and delays due to the construction going on around the hotel.  The hotel lobby was nice.  We ended up in a room that had a lot of tiles that appeared to be loose and the grout crumbling.  I also have to say that the bed was not comfortable.  It was very firm and not what I'm used to for the Hilton hotel chains.  I've been a diamond member for a few years, so I I've stayed at a lot of Hilton hotels.  The price for this hotel is reasonable.MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>My husband and I stayed here when we were attending a wedding.  We liked the hotel overall, and we knew that we should expect to see traffic and delays due to the construction going on around the hotel.  The hotel lobby was nice.  We ended up in a room that had a lot of tiles that appeared to be loose and the grout crumbling.  I also have to say that the bed was not comfortable.  It was very firm and not what I'm used to for the Hilton hotel chains.  I've been a diamond member for a few years, so I I've stayed at a lot of Hilton hotels.  The price for this hotel is reasonable.More</t>
-  </si>
-  <si>
-    <t>Sara N</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r582634698-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>582634698</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
-  </si>
-  <si>
-    <t>Customer Service was outstanding</t>
-  </si>
-  <si>
-    <t>I have stayed in plenty of hotels and I was truly impressed with the level of customer service and how pleasant all of the staff was during our stay.  When we checked in, there were three very nice gentlemen.  When we requested an extra blanket they were very nice about it.  And in the morning during breakfast they were also great.  I don't normally leave reviews but I thought this was worth it.  As for the hotel itself, it is getting a little dated but nothing horrible.MoreShow less</t>
-  </si>
-  <si>
-    <t>I have stayed in plenty of hotels and I was truly impressed with the level of customer service and how pleasant all of the staff was during our stay.  When we checked in, there were three very nice gentlemen.  When we requested an extra blanket they were very nice about it.  And in the morning during breakfast they were also great.  I don't normally leave reviews but I thought this was worth it.  As for the hotel itself, it is getting a little dated but nothing horrible.More</t>
-  </si>
-  <si>
-    <t>mtntrvlr</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r578863158-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>578863158</t>
-  </si>
-  <si>
-    <t>05/08/2018</t>
-  </si>
-  <si>
-    <t>Horrible</t>
-  </si>
-  <si>
-    <t>Usually Hilton properties are clean and comfortable. This HGI is neither. The room carpet was not clean, chair dirty, and there was a musty odor in the room. All of the treadmills in the exercise room are broken. Horrible stay. Definitely not good for business travelers. I frequently come to this area for work and will never stay here again.MoreShow less</t>
-  </si>
-  <si>
-    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Usually Hilton properties are clean and comfortable. This HGI is neither. The room carpet was not clean, chair dirty, and there was a musty odor in the room. All of the treadmills in the exercise room are broken. Horrible stay. Definitely not good for business travelers. I frequently come to this area for work and will never stay here again.More</t>
-  </si>
-  <si>
-    <t>Doretha F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r575247801-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -354,9 +783,6 @@
     <t>The shuttle to &amp; from the Ft. Worth Stockyards for a concert was convenient and the driver (I believe his name was Daniel) was extremely knowledgeable about the area.  We appreciated his help with the dinner options!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded April 23, 2018</t>
   </si>
   <si>
@@ -364,9 +790,6 @@
   </si>
   <si>
     <t>The shuttle to &amp; from the Ft. Worth Stockyards for a concert was convenient and the driver (I believe his name was Daniel) was extremely knowledgeable about the area.  We appreciated his help with the dinner options!More</t>
-  </si>
-  <si>
-    <t>144benedictad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r574630959-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -391,9 +814,6 @@
 Thirdly, I reported the incident about my knee to the Front Desk Clerk the following morning because my knee was swollen and in pain. I asked the Front Desk Clerk for the Hotel Manager, but since he wasn't there at the time, she provided me with an email address to contact not only him, but also the Housekeeping Manager.  I subsequently sent an email to the Hotel and Housekeeping...My one night stay at The Hilton Garden Inn Fort Worth/Fossil Creek on March 25, 2018 was a terrible one. First of all, the hotel is not as beautiful as the other Hilton Garden Inn Hotels in the area. It reminded me more of one of those military type barracks that I've stayed at during my many years in the Army. The website states that it's a resort-style hotel, but I cannot attest to that statement because I it doesn't have the features of a resort.Secondly the room that I stayed in was much smaller than what I am used to. It was so small that I injured my knee from the exposed bed frame in the room. The pictures of the exposed bed-frame is also proudly highlighted as one of the hotel photos on the Hilton Hotels website and app.  That particular hotel is about the only one that I've stayed at with a bed-frame exposed like that, and I have stayed at numerous Hilton Hotels across the U.S.Thirdly, I reported the incident about my knee to the Front Desk Clerk the following morning because my knee was swollen and in pain. I asked the Front Desk Clerk for the Hotel Manager, but since he wasn't there at the time, she provided me with an email address to contact not only him, but also the Housekeeping Manager.  I subsequently sent an email to the Hotel and Housekeeping Managers at the hotel, and they both just ignored my email.  I went to an Urgent Care Unit in the Area the following day because I had difficulty walking, and still to this date, no one from that hotel have contacted me to inquire about my knee. I am in constant pain, and they have shown not an ounce of empathy for what I have and is still dealing with.  It disgusts me how people who are in  those managerial positions treat others in a non-caring way.  I have a medical bill that has to be paid, and because those individuals at that establishment refusal to acknowledge what occurred, I am stuck with that bill, and who knows what other bills that the injury may bring me because I  am still in pain. To all who may read my review, and if you are planning to stay at the hotel, please be careful when you are moving around in the room.  The rooms are very small, and you may end up hurting your knee like how I did. If I could have given that hotel "0 STARS" then I would have done exactly that because despite of what occurred they still charged my credit card.  Those individuals don't deserve to serve the public positions as such.More</t>
   </si>
   <si>
-    <t>bmlee0311</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r574594159-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -409,9 +829,6 @@
     <t>This location has a lot of potential but they seem to miss the mark. Location wise, it is conveniently located and easy to access.  It has excellent curb appeal and a visually appealing lobby. Unfortunately, the rooms, services and fitness center make this a less than desirable location. More</t>
   </si>
   <si>
-    <t>mindys965</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r568911936-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -436,7 +853,121 @@
     <t>We stayed 2 nights.  The outside of room was missing the room number, which was on the floor across the hall and the wall paper outside our room was mostly off the wall and showed signs of mold.  The room itself was adequate, but did appear there was some sort of water damage in bathroom.More</t>
   </si>
   <si>
-    <t>MJ M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r566471659-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>566471659</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Quiet location</t>
+  </si>
+  <si>
+    <t>The room we stayed in did not accommodate 5 per reservation which was the only main complaint.  Overall our stay was good and would come back again.  Easy access to freeways and shuttle from hotel to Stockyards.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>The room we stayed in did not accommodate 5 per reservation which was the only main complaint.  Overall our stay was good and would come back again.  Easy access to freeways and shuttle from hotel to Stockyards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r565815001-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>565815001</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Anniversary weekend in Fort Worth</t>
+  </si>
+  <si>
+    <t>This quick weekend was wonderful  starting with the dinner at Mash'd and the Jekyll &amp; Hyde play at Casa Manana, Stockyards, lunch at Cattleman, Mark Chestnut at BillyBobs, and then wonderful tour at the Amon Carter Art museum and the best Pork Chops and meringue pie at Cork &amp; Pig. Every morning started out with a fantastic breakfast at Hilton Garden Inn, first with Rick and then with Sham making the best Omelettes with a fabulous smile! Morian in the breakfast area making sure we had everything we needed. Marcella at the front desk was always helpful and generous. Great staff made this trip so enjoyable! Hotel is close to everything we went to. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>This quick weekend was wonderful  starting with the dinner at Mash'd and the Jekyll &amp; Hyde play at Casa Manana, Stockyards, lunch at Cattleman, Mark Chestnut at BillyBobs, and then wonderful tour at the Amon Carter Art museum and the best Pork Chops and meringue pie at Cork &amp; Pig. Every morning started out with a fantastic breakfast at Hilton Garden Inn, first with Rick and then with Sham making the best Omelettes with a fabulous smile! Morian in the breakfast area making sure we had everything we needed. Marcella at the front desk was always helpful and generous. Great staff made this trip so enjoyable! Hotel is close to everything we went to. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r559804712-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>559804712</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Visit to Ft Worth</t>
+  </si>
+  <si>
+    <t>I live in Dallas. !7 of my friends came from Maryland to visit and we decided to go to Ft Worth. We chose this hotel due to its proximity to the stockyards. They have a shuttle which is very convenient; though, we didnt know its schedule. This was a nice place. No issues were had. The breakfast was great, the rooms were clean and comfortable. Friends used the gym and liked the equipment. Its only 5 miles from downtown ft worth, top golf, and the stockyards making it a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I live in Dallas. !7 of my friends came from Maryland to visit and we decided to go to Ft Worth. We chose this hotel due to its proximity to the stockyards. They have a shuttle which is very convenient; though, we didnt know its schedule. This was a nice place. No issues were had. The breakfast was great, the rooms were clean and comfortable. Friends used the gym and liked the equipment. Its only 5 miles from downtown ft worth, top golf, and the stockyards making it a great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r558917451-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558917451</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Clean, but horrible service</t>
+  </si>
+  <si>
+    <t>Went for a 5:00 wedding. Room was not ready at the 4:00 check in time because the hotel had sold out the previous night. I'm not sure how the two are related. At 4:15, we finally asked for whatever was available so we could change and head to the wedding. The staff seemed unconcerned about accommodating our reservation. Instead of 2 queens, we got a king and a pull out bed. King bed was thin and uncomfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Went for a 5:00 wedding. Room was not ready at the 4:00 check in time because the hotel had sold out the previous night. I'm not sure how the two are related. At 4:15, we finally asked for whatever was available so we could change and head to the wedding. The staff seemed unconcerned about accommodating our reservation. Instead of 2 queens, we got a king and a pull out bed. King bed was thin and uncomfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r558156795-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558156795</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Above and beyond...</t>
+  </si>
+  <si>
+    <t>This is my third stay here and the service and staff attentiveness has never been better.  I don’t remember the shuttle service being available before; this is the first time someone drove four miles to pick me up after midnight.  Kevin you rock!  The room was spacious and comfortable, check in and out efficient and friendly.  Bottled water offered when I checked out!  Lots of little extras in the lobby; coffee, fruit and citrusy H2O.  Decent value too!MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>This is my third stay here and the service and staff attentiveness has never been better.  I don’t remember the shuttle service being available before; this is the first time someone drove four miles to pick me up after midnight.  Kevin you rock!  The room was spacious and comfortable, check in and out efficient and friendly.  Bottled water offered when I checked out!  Lots of little extras in the lobby; coffee, fruit and citrusy H2O.  Decent value too!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r557409191-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -457,18 +988,9 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded March 12, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 12, 2018</t>
-  </si>
-  <si>
     <t>Need more staff, particularly at breakfast. Hallways were noisy and pillows are very uncomfortable. Location next to highway is noisy. As Hilton Honors Gold members we expected a higher quality of service but unfortunately were dissatisfied. More</t>
   </si>
   <si>
-    <t>Taradoula</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r557394929-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -484,9 +1006,6 @@
     <t>This Hilton Garden Inn was very clean and well-managed, as I expect from this brand. There are not many places to eat or shop nearby but it's convenient to I-35 and about 10 minutes to downtown Fort Worth.More</t>
   </si>
   <si>
-    <t>Michael O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r556016359-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -511,9 +1030,6 @@
     <t>I found this hotel to be new and clean with friendly staff and considered it a good value for the money, as a mid-range hotel for my business travel. Parking and highway access were all very convenient. More</t>
   </si>
   <si>
-    <t>Badgelady</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r554763368-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -538,9 +1054,6 @@
     <t>This is our second stay here in recent months.  First visit was very enjoyable with no glitches.  This stay was a bit problematic. Room was clean and comfy...fridge and microwave.  But, plumbing problem at check in meant no immediate hot water...but was corrected within an hour.  At breakfast there was no internet wifi connection in the lobby area.  The regular coffee ran out and was replaced with a pot of hot water.  Another long wait for coffee ensued.  Wound up with milk for my very excellently cooked bacon and cheese omelette, which might be the high point of this stay. More</t>
   </si>
   <si>
-    <t>Toobusy2leave</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r554470302-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -565,9 +1078,6 @@
     <t>I chose this hotel due to its location and the great rate offered for this particular time frame.  I knew it was going to be too cold to be outside so I also liked the fact that it had an indoor pool and a restaurant onsite.  We took advantage of both the pool and the restaurant!  Nice relaxing time away from everyday life!More</t>
   </si>
   <si>
-    <t>John R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r554081537-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -589,9 +1099,6 @@
     <t>I've stayed here on multiple occasions, largely because of the location, clean facility, friendly staff, AND the great service I get from the morning breakfast crew. On my second morning there, Christinne in the kitchen remembered my order and duplicated it perfectly. I have many choices in this area and always come back to HGI Fossil Creek.More</t>
   </si>
   <si>
-    <t>greggesi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r552766886-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -610,9 +1117,6 @@
     <t>I stay in HGI's across the west 2 or 3 nights a week; however, this time dinner was unique and outstanding.  While the menu is the same at all of the hotels, the salmon and dessert prepared by their Chef (Willie Venney) was easily the best I've every had.  It was perfectly cooked, the rice was warm and the vegetables were cooked but perfectly crunchy.  If you are staying at this hotel, it is worth dining in.  Ask for Willie, his food is good but his service and the service of the entire staff was perfect!  GREAT JOB!More</t>
   </si>
   <si>
-    <t>bazza_aus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r551356163-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -637,9 +1141,6 @@
     <t>This was our first stop off the plane from Australia. From the moment we walked in the staff were so friendly, the hotel lobby is fresh and inviting (free coffee available). Our room was an awesome size and everything that we needed. Utilised the shuttle service (ran after 5pm), there are a few food items, drinks etc to purchase at reception a great extra. There is a 7eleven short walk. Also had breakfast, cooked ($10.95 US) which was great. Think it was $5.95 for continental.We used Uber and Lyft to get around and cost under $10 per ride not far from the stockyards etc.Thank you to all the awesome staff who made our few nights in Fort Worth FANTASTIC! More</t>
   </si>
   <si>
-    <t>gofishWhitehouse</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r551344815-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -655,9 +1156,6 @@
     <t>I stay every week this is extremely excellent staff everyone treats me very well that’s why keep coming Back. I have to give an extreme shout out to the restaurant staff Latonya ,Willie,Patrice the manager she’s always working and The new trainer named Justis. Don’t forgetAbout the front desk Giselle shes awesome. I also can’t forget about Isaac he’s fantastic and very welcoming. The front desk manager is polite also DanielMore</t>
   </si>
   <si>
-    <t>wade a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r551026628-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -700,9 +1198,6 @@
     <t>The price of the room was unbeatable. I was looking for a cheap place to stay, but I still wanted to be in a decent room. This Hilton Garden Inn was very clean and the staff was friendly. It far exceeded my expectations. I would definitely stay here again!More</t>
   </si>
   <si>
-    <t>Brian F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r548371806-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -718,9 +1213,6 @@
     <t>This was a quick holiday junket to visit friends and this property was PERFECT.  Typical Hilton quality but the breakfast was something extra special.  Sham and Willie Venney teamed up behind the grill to provide a real treat that FAR exceeded my expectations.  This place will definitely get filed away on my list of repeat visits.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded December 22, 2017</t>
   </si>
   <si>
@@ -730,9 +1222,6 @@
     <t>This was a quick holiday junket to visit friends and this property was PERFECT.  Typical Hilton quality but the breakfast was something extra special.  Sham and Willie Venney teamed up behind the grill to provide a real treat that FAR exceeded my expectations.  This place will definitely get filed away on my list of repeat visits.More</t>
   </si>
   <si>
-    <t>petercF9832XH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r548155666-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -757,9 +1246,6 @@
     <t>We had a great time and the price was right for a short Uber to the Stockyards! 4.2 miles was nothing for the excellent price of our stay. Staying any closer would be a waste of money when you don't plan to just stay in your room the whole time!More</t>
   </si>
   <si>
-    <t>533austinw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r547561340-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -784,9 +1270,6 @@
     <t>This hotel is really a steal for the price. Room service went above and beyond, the staff answers every question in a timely manner and when you ask for extra items I.e. blankets, pillows, etc the staff goes above and beyond every step of the way.More</t>
   </si>
   <si>
-    <t>Jeff-GSE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r546398772-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -811,7 +1294,100 @@
     <t>Sham is a great chef. Poached eggs were done perfectly which almost no one else can seem to do. Hash browns are crispy. Bacon is crispy. Omelets made to order are great. Fresh fruit with blackberries and raspberries. Sham decorates the plates with garnishes like a 4 star restaurant. We learned to tell GPS to ignore highways because most of the highways are under construction and so many highways criss cross that GPS never is sure exactly which one you are on.More</t>
   </si>
   <si>
-    <t>Stephen F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r546398214-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>546398214</t>
+  </si>
+  <si>
+    <t>Great stay Fantastic breakfast</t>
+  </si>
+  <si>
+    <t>Chef Sham is exceptional!  His poached eggs were best ever and the crispiest hash browns!  My husband raved over his omelet! Our server, Moriah, has an exceptional personality and brightens your day!  Enjoyed our stay and the food!  Will come back here for sure!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Chef Sham is exceptional!  His poached eggs were best ever and the crispiest hash browns!  My husband raved over his omelet! Our server, Moriah, has an exceptional personality and brightens your day!  Enjoyed our stay and the food!  Will come back here for sure!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r545996697-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>545996697</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Best in class</t>
+  </si>
+  <si>
+    <t>I needed a place to stay for a temporary work assignment and found this gem.  I found the staff very friendly and interested in making sure I enjoyed my stay.  The restaurant has a great menu for evening dining and even offers room service.  Their breakfast selections, including made to order omelettes, was exceptional.  My room was quite large and had a refrigerator and a microwave.  The coffee maker was one of those Keurig kind and when I asked they gave me extra coffee pods, for free.  I'm pretty sure I'll stay here again when I return to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a place to stay for a temporary work assignment and found this gem.  I found the staff very friendly and interested in making sure I enjoyed my stay.  The restaurant has a great menu for evening dining and even offers room service.  Their breakfast selections, including made to order omelettes, was exceptional.  My room was quite large and had a refrigerator and a microwave.  The coffee maker was one of those Keurig kind and when I asked they gave me extra coffee pods, for free.  I'm pretty sure I'll stay here again when I return to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r545089670-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>545089670</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>excellen friendly staff, very professional</t>
+  </si>
+  <si>
+    <t>Only stayed one night, but the staff was professional, room was clean, bed comfortable.  I did not understand the breakfast program, but that was on me for not asking more about it.  Overall excellent place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Only stayed one night, but the staff was professional, room was clean, bed comfortable.  I did not understand the breakfast program, but that was on me for not asking more about it.  Overall excellent place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r544936885-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>544936885</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Hilton Garden Inn</t>
+  </si>
+  <si>
+    <t>It was a great stay, I tried to book in for another night but unfortunately all book out. I recommend this hotel. I had been on a long road trip and arrived very late and everything was perfect right down to the refreshments in the lobby!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>It was a great stay, I tried to book in for another night but unfortunately all book out. I recommend this hotel. I had been on a long road trip and arrived very late and everything was perfect right down to the refreshments in the lobby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r544234571-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>544234571</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Incorrectly Billed Beware!</t>
+  </si>
+  <si>
+    <t>Incorrect billing!  I reserved a room with points and noticed a hold on my credit card.  The hold turned into a charge (this never happens) so I called the hotel to inquire. They advised that it is still a hold and it could be removed.  I notice on the recepeipt that the hold was actually an incorrect charge and called back.  The person at the front desk said it was incorrect and advised it should be back in my account in TEN business days.  I asked to speak to the manager and she says "he's just going to tell you the same thing".  I would not recommend this hotel.  I have been a loyal diamond member with Hilton for years and this has never happened before.  I wonder how many others were "incorrectly charged" and never knew it?MoreShow less</t>
+  </si>
+  <si>
+    <t>Incorrect billing!  I reserved a room with points and noticed a hold on my credit card.  The hold turned into a charge (this never happens) so I called the hotel to inquire. They advised that it is still a hold and it could be removed.  I notice on the recepeipt that the hold was actually an incorrect charge and called back.  The person at the front desk said it was incorrect and advised it should be back in my account in TEN business days.  I asked to speak to the manager and she says "he's just going to tell you the same thing".  I would not recommend this hotel.  I have been a loyal diamond member with Hilton for years and this has never happened before.  I wonder how many others were "incorrectly charged" and never knew it?More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r542910540-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -829,9 +1405,6 @@
     <t>This is a good hotel, great staff and has an indoor heated pool and spa which we enjoyed.  Whilst it appears to be in the middle of nowhere there a a number of restaurants within a couple of miles and it's not hard finding your way into town by car from this location.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Victor T, General Manager at Hilton Garden Inn Fort Worth/Fossil Creek, responded to this reviewResponded November 28, 2017</t>
   </si>
   <si>
@@ -841,9 +1414,6 @@
     <t>This is a good hotel, great staff and has an indoor heated pool and spa which we enjoyed.  Whilst it appears to be in the middle of nowhere there a a number of restaurants within a couple of miles and it's not hard finding your way into town by car from this location.More</t>
   </si>
   <si>
-    <t>aschtunh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r542932395-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -883,9 +1453,6 @@
     <t>The service I received was very courteous and professional, the entire staff went out of their way to make sure I was comfortable.  The room was very clean.  Breakfast was great and the warm cookies in the evening were excellent.More</t>
   </si>
   <si>
-    <t>charleswK9956DD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r537610789-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -913,9 +1480,6 @@
     <t>Its a average stay as far as a Hilton property. The location is difficult because of construction but will get better once 35 is complete. I'm not use to paying for breakfast at Hilton properties. Overall the Hilton property is nice and clean.More</t>
   </si>
   <si>
-    <t>327allenl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r534500367-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -940,9 +1504,6 @@
     <t>Clean and has a fresh coat of brightness.  Staff is professional and accommodating.  Breakfast was served hot and well prepared as ordered.  Cleaning staff was quick and efficient. Good proximity to reasonable choices of restaurants.More</t>
   </si>
   <si>
-    <t>susanmT7739EJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r532010006-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -967,9 +1528,6 @@
     <t>Nice stay. Noisy ac system but convenient for Uber to stockyards and very nice day facility and pleasant staff. GPS gave weird directions to get there due to construction . But easy off and on 35w which was nice!More</t>
   </si>
   <si>
-    <t>java53079</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r531861695-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -994,9 +1552,6 @@
     <t>Great hotel, wonderful staff, good breakfast. I think the breakfast was a bit overpriced for what you get and compared to other hotels but it was tasty. The staff throughout the hotel is very friendly and helpful. More</t>
   </si>
   <si>
-    <t>CobaltConnection</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r531494414-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1015,9 +1570,6 @@
     <t>First time here.  Ample parking and easy to find.  Very friendly staff and service.  Breakfast and bar area open and well served. Rooms are large, quiet and well appointed.  Close to interstates and Fort Worth. Gas and 7-11 is one block away.More</t>
   </si>
   <si>
-    <t>seemyeyes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r529808419-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1039,27 +1591,24 @@
     <t>Very quiet spot. It is not the easiest place to get to because of all the construction that is going on. The people were extra friendly. I is pretty quaint... They have a breakfast and dinner restaurant food cooked to order. And a small bar area that works well. Overall it was a good spot for a one day stop in. Now it cost me about thirty bucks to get a uber to the DFW airport. (non peak time...) Really clean rooms at a good price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r528575825-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>528575825</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
     <t>Shawn H</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r528575825-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>528575825</t>
-  </si>
-  <si>
-    <t>09/30/2017</t>
-  </si>
-  <si>
     <t>Great hotel and reasonably priced. Convenient location for business and entertaining in Fort Worth area. Very good service. Had last minute schedule changes and they graciously accommodated adjustments. MoreShow less</t>
   </si>
   <si>
     <t>Great hotel and reasonably priced. Convenient location for business and entertaining in Fort Worth area. Very good service. Had last minute schedule changes and they graciously accommodated adjustments. More</t>
   </si>
   <si>
-    <t>alicialouthomas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r527659597-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1078,9 +1627,6 @@
     <t>Great hotel.  Room smelled a bit like a locker room. However, service was great. We asked for extra pillows and received them promptly and without any fuss. Enjoyed dinner at the hotel, it was good, not great, but that's what we expected. However, I ordered a mojito, and what I received was essentially a lime daiquiri on the rocks. No fresh mint. But seriously folks. No big deal. We'd definitely stay again, the drive to the Fort Worth Stockyards was a 5-10 drive on city streets, best and shortest drive yet we've found other than staying IN the Stockyards. More</t>
   </si>
   <si>
-    <t>Bernardo F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r526009455-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1099,9 +1645,6 @@
     <t>It was a nice representation of the brand.  The property was well maintained and the room was comfortable and clean.  Mattress was fine.  A train horn in the distance, but otherwise a quiet property.  Nice staff and a good indoor and outdoor pool too.  Decent workout room, price was reasonable.More</t>
   </si>
   <si>
-    <t>eilat59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r525582455-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1120,9 +1663,6 @@
     <t>Spotlessly clean Hilton Garden Inn located located in an off beat location surrounded by nothing - but the staff is incredible. Friendly, accommodating, professional and with a 'can do' attitude.  They more then made up for the strange location. If my travels ever bring me here again I would not hesitate to return. More</t>
   </si>
   <si>
-    <t>Chris G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r525471635-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1144,9 +1684,6 @@
     <t>Breakfast guys were great, Wille and the Chef take good care of you. Only issue we had is when we arrived, I asked if the poll was heated. they said no, but we have a hot tub. they next day i discovered there is a heated indoor pool and a non heated outdoor pool.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r523283763-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1165,9 +1702,6 @@
     <t>The lovely Front Desk Clerk, Sarah is Amazing. Always smiling and ready to assist you with any issues. The Chef, Sham made the best eggs/omelets. The breakfast buffet is one you do not want to miss. Patrice, the manager and Mya our server makes dinner and drinks at the bar fun and relaxing. They have made me feel welcomed and at home.  This staff makes this hotel great. More</t>
   </si>
   <si>
-    <t>866jacquelync</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r522145388-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1186,9 +1720,6 @@
     <t>The hotel personnel were great, the accommodations were better than we expected.  We enjoyed the shopping in the area and were close to friends and family.  We were having so much fun we decided to stay an additional night.More</t>
   </si>
   <si>
-    <t>852denetras</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r521791379-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1216,10 +1747,10 @@
     <t>Awesome Staff Thanks Danalle</t>
   </si>
   <si>
-    <t>What makes a Great Hotel outside of the Amenities is Awesome Staff. Danalle at the front desk was very helpful and upbeat. She gave us a warm welcome and helped answer important questions we had about the City during our Trip. The Hotel it self is 3 Stars but I'm giving it a 5 because of Danalle. Awesome Service!</t>
-  </si>
-  <si>
-    <t>chalmask</t>
+    <t>What makes a Great Hotel outside of the Amenities is Awesome Staff. Danalle at the front desk was very helpful and upbeat. She gave us a warm welcome and helped answer important questions we had about the City during our Trip. The Hotel it self is 3 Stars but I'm giving it a 5 because of Danalle. Awesome Service!MoreShow less</t>
+  </si>
+  <si>
+    <t>What makes a Great Hotel outside of the Amenities is Awesome Staff. Danalle at the front desk was very helpful and upbeat. She gave us a warm welcome and helped answer important questions we had about the City during our Trip. The Hotel it self is 3 Stars but I'm giving it a 5 because of Danalle. Awesome Service!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r516485264-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1243,9 +1774,6 @@
     <t>We had such an enjoyable stay! Loved having a relaxing day at the pool before attending a show nearby at Billy Bob's. Staff was friendly, helpful and went above and beyond to make our stay one to remember!More</t>
   </si>
   <si>
-    <t>jamesrZ3554UI</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r512481317-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1270,9 +1798,6 @@
     <t>This was our second time at this hotel. We Will return. Quiet and very clean. Enjoyed the comp drinks at the entrance of hotel. Includes coffee and herbal tea. We have not rated at hotel yet. But will try next time. More</t>
   </si>
   <si>
-    <t>joy w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r511544427-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1291,9 +1816,6 @@
     <t>Nice property. Not bad very thorough on CC at check in. They seem nice, just doing their job. Chef great, wait staff great. Seem new, but ok. Meal good. Clean quiet environment. Construction makes it kinda hard to get to. Overall a good stay 1 night only. More</t>
   </si>
   <si>
-    <t>HappyTreesforBob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r510046918-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1303,18 +1825,12 @@
     <t>08/08/2017</t>
   </si>
   <si>
-    <t>Visit to Ft Worth</t>
-  </si>
-  <si>
     <t>We spent the weekend in Ft Worth. Myself, husband, and 6 year old. Check in/out was very easy and the room itself was great. We were on the first floor and very close to the lobby, so it was easy to get in and out without a fuss. Although there was some construction on the highway, it wasn't difficult leaving or coming back from the day out to the hotel. Would recommend staying. My only reasoning for not giving 5 stars would be on our first night, it sounded like a construction zone in the rooms above us at about 1:30 in the morning. Lots of stomping and sounding like people jumping or dropping heay things multiple times. It woke my husband and myself up, but after about 20 minutes, it stopped. Not sure what was going on there. There was also what we assumed was a break in the first morning we were there. A commercial truck was parked close to the front (and very close to the highway exit) and we walked outside to police officers around the truck and there was shattered glass on the ground indicating the window may have been smashed. This is an assumption based on what we saw, but it served as a reminder to be safe.MoreShow less</t>
   </si>
   <si>
     <t>We spent the weekend in Ft Worth. Myself, husband, and 6 year old. Check in/out was very easy and the room itself was great. We were on the first floor and very close to the lobby, so it was easy to get in and out without a fuss. Although there was some construction on the highway, it wasn't difficult leaving or coming back from the day out to the hotel. Would recommend staying. My only reasoning for not giving 5 stars would be on our first night, it sounded like a construction zone in the rooms above us at about 1:30 in the morning. Lots of stomping and sounding like people jumping or dropping heay things multiple times. It woke my husband and myself up, but after about 20 minutes, it stopped. Not sure what was going on there. There was also what we assumed was a break in the first morning we were there. A commercial truck was parked close to the front (and very close to the highway exit) and we walked outside to police officers around the truck and there was shattered glass on the ground indicating the window may have been smashed. This is an assumption based on what we saw, but it served as a reminder to be safe.More</t>
   </si>
   <si>
-    <t>Patricia T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r509723063-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1333,9 +1849,6 @@
     <t>I booked this hotel for our 30th Wedding Anniversary. This was our first time to every come to Ft. Worth.   The room was very disappointing. It was not very clean, the bathroom toilet seat was almost completely off, maintenance had to come in, there were awful stains on the walls.  The room had a smell, so glad I had air freshener with us.   The staff were very friendly and made us feel welcome.  The staff in the restaurant were amazing also, so friendly and the food was delish.  Our last morning there the fire alarms went off and so we bailed out of our rooms, till all clear and went back and about an hour later, they went off again.....false alarms.  Even though the staff was great and friendly I don't think I would ever stay at this hotel again.  Just needs lots of improvements. The construction that was going on made it super difficult to get to the hotel and maneuver our outings.  This really wasn't the hotels fault, but saying this to just let people know .More</t>
   </si>
   <si>
-    <t>Cheri M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r506869320-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +1870,6 @@
     <t>No shuttle service we saw shuttles from all surrounding hotels. Also the beds are way too firm. I left hotel down in my back. Other than the two things listed our stay was great. We will stay at a different hotel next time because others have shuttle service.More</t>
   </si>
   <si>
-    <t>Cynthia S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r506565965-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1376,9 +1886,6 @@
   </si>
   <si>
     <t>This is just a regular hotel in appearance but The hotel staff make this hotel awesome!  You never encounter "a grump" here.  Everyone is helpful and always with kindness and a smile. The breakfast is very, very good.  Did not have the opportunity to try supper. More</t>
-  </si>
-  <si>
-    <t>Muslimmomof3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109156-r505291234-Hilton_Garden_Inn_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1901,122 +2408,104 @@
       <c r="A2" t="n">
         <v>35612</v>
       </c>
-      <c r="B2" t="n">
-        <v>154040</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35612</v>
       </c>
-      <c r="B3" t="n">
-        <v>154041</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2038,632 +2527,606 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35612</v>
       </c>
-      <c r="B4" t="n">
-        <v>19398</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35612</v>
       </c>
-      <c r="B5" t="n">
-        <v>154042</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35612</v>
       </c>
-      <c r="B6" t="n">
-        <v>23007</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35612</v>
       </c>
-      <c r="B7" t="n">
-        <v>154043</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35612</v>
       </c>
-      <c r="B8" t="n">
-        <v>154044</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>113</v>
-      </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35612</v>
       </c>
-      <c r="B9" t="n">
-        <v>154045</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35612</v>
       </c>
-      <c r="B10" t="n">
-        <v>154046</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35612</v>
       </c>
-      <c r="B11" t="n">
-        <v>154047</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35612</v>
       </c>
-      <c r="B12" t="n">
-        <v>154048</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2673,145 +3136,127 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35612</v>
       </c>
-      <c r="B13" t="n">
-        <v>154049</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35612</v>
       </c>
-      <c r="B14" t="n">
-        <v>2286</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
       </c>
@@ -2823,277 +3268,257 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35612</v>
       </c>
-      <c r="B15" t="n">
-        <v>115523</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35612</v>
       </c>
-      <c r="B16" t="n">
-        <v>154050</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35612</v>
       </c>
-      <c r="B17" t="n">
-        <v>6779</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35612</v>
       </c>
-      <c r="B18" t="n">
-        <v>154051</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -3103,122 +3528,128 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35612</v>
       </c>
-      <c r="B19" t="n">
-        <v>154052</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35612</v>
       </c>
-      <c r="B20" t="n">
-        <v>154053</v>
-      </c>
-      <c r="C20" t="s">
-        <v>205</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -3229,84 +3660,84 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35612</v>
       </c>
-      <c r="B21" t="n">
-        <v>154054</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" t="s">
         <v>187</v>
       </c>
-      <c r="O21" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -3319,37 +3750,37 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3371,280 +3802,258 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="X22" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35612</v>
       </c>
-      <c r="B23" t="n">
-        <v>10713</v>
-      </c>
-      <c r="C23" t="s">
-        <v>226</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="O23" t="s">
-        <v>232</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
       <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35612</v>
       </c>
-      <c r="B24" t="n">
-        <v>154055</v>
-      </c>
-      <c r="C24" t="s">
-        <v>236</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35612</v>
       </c>
-      <c r="B25" t="n">
-        <v>154056</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
         <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="X25" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35612</v>
       </c>
-      <c r="B26" t="n">
-        <v>154057</v>
-      </c>
-      <c r="C26" t="s">
-        <v>254</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
-        <v>187</v>
-      </c>
-      <c r="O26" t="s">
-        <v>54</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3655,132 +4064,120 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="X26" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35612</v>
       </c>
-      <c r="B27" t="n">
-        <v>12018</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35612</v>
       </c>
-      <c r="B28" t="n">
-        <v>154058</v>
-      </c>
-      <c r="C28" t="s">
-        <v>273</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
@@ -3793,19 +4190,19 @@
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -3818,37 +4215,37 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3870,294 +4267,270 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35612</v>
       </c>
-      <c r="B30" t="n">
-        <v>154059</v>
-      </c>
-      <c r="C30" t="s">
-        <v>287</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="Y30" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35612</v>
       </c>
-      <c r="B31" t="n">
-        <v>154060</v>
-      </c>
-      <c r="C31" t="s">
-        <v>297</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="X31" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35612</v>
       </c>
-      <c r="B32" t="n">
-        <v>154061</v>
-      </c>
-      <c r="C32" t="s">
-        <v>306</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X32" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35612</v>
       </c>
-      <c r="B33" t="n">
-        <v>154062</v>
-      </c>
-      <c r="C33" t="s">
-        <v>315</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
@@ -4170,60 +4543,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="X33" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35612</v>
       </c>
-      <c r="B34" t="n">
-        <v>21208</v>
-      </c>
-      <c r="C34" t="s">
-        <v>324</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4235,412 +4604,414 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="X34" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35612</v>
       </c>
-      <c r="B35" t="n">
-        <v>39558</v>
-      </c>
-      <c r="C35" t="s">
-        <v>331</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="X35" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="Y35" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35612</v>
       </c>
-      <c r="B36" t="n">
-        <v>50123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>339</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="X36" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="Y36" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35612</v>
       </c>
-      <c r="B37" t="n">
-        <v>154063</v>
-      </c>
-      <c r="C37" t="s">
-        <v>345</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="X37" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Y37" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35612</v>
       </c>
-      <c r="B38" t="n">
-        <v>19763</v>
-      </c>
-      <c r="C38" t="s">
-        <v>352</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="X38" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y38" t="s">
         <v>322</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35612</v>
       </c>
-      <c r="B39" t="n">
-        <v>154064</v>
-      </c>
-      <c r="C39" t="s">
-        <v>359</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="K39" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="X39" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35612</v>
       </c>
-      <c r="B40" t="n">
-        <v>38038</v>
-      </c>
-      <c r="C40" t="s">
-        <v>366</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4649,60 +5020,56 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="X40" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="Y40" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35612</v>
       </c>
-      <c r="B41" t="n">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>374</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4714,147 +5081,135 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="X41" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="Y41" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35612</v>
       </c>
-      <c r="B42" t="n">
-        <v>154065</v>
-      </c>
-      <c r="C42" t="s">
-        <v>381</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="J42" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="X42" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35612</v>
       </c>
-      <c r="B43" t="n">
-        <v>154066</v>
-      </c>
-      <c r="C43" t="s">
-        <v>388</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="O43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4864,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="X43" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Y43" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44">
@@ -4883,320 +5238,300 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>349</v>
+      </c>
+      <c r="X44" t="s">
+        <v>350</v>
+      </c>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35612</v>
       </c>
-      <c r="B45" t="n">
-        <v>154067</v>
-      </c>
-      <c r="C45" t="s">
-        <v>399</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
         <v>371</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>372</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35612</v>
       </c>
-      <c r="B46" t="n">
-        <v>154068</v>
-      </c>
-      <c r="C46" t="s">
-        <v>407</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>405</v>
-      </c>
-      <c r="O46" t="s">
-        <v>76</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="X46" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="Y46" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35612</v>
       </c>
-      <c r="B47" t="n">
-        <v>68772</v>
-      </c>
-      <c r="C47" t="s">
-        <v>416</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O47" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
       <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
+        <v>370</v>
+      </c>
+      <c r="X47" t="s">
         <v>371</v>
       </c>
-      <c r="X47" t="s">
-        <v>372</v>
-      </c>
       <c r="Y47" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35612</v>
       </c>
-      <c r="B48" t="n">
-        <v>154069</v>
-      </c>
-      <c r="C48" t="s">
-        <v>423</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="J48" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5205,140 +5540,130 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="X48" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="Y48" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35612</v>
       </c>
-      <c r="B49" t="n">
-        <v>13854</v>
-      </c>
-      <c r="C49" t="s">
-        <v>430</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O49" t="s">
-        <v>76</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="X49" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35612</v>
       </c>
-      <c r="B50" t="n">
-        <v>63255</v>
-      </c>
-      <c r="C50" t="s">
-        <v>437</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="O50" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5351,60 +5676,56 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="X50" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="Y50" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35612</v>
       </c>
-      <c r="B51" t="n">
-        <v>10211</v>
-      </c>
-      <c r="C51" t="s">
-        <v>445</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="J51" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5413,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5426,84 +5747,2151 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="X51" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="Y51" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35612</v>
       </c>
-      <c r="B52" t="n">
-        <v>154070</v>
-      </c>
-      <c r="C52" t="s">
-        <v>452</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="J52" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="K52" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="X52" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J53" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>357</v>
+      </c>
+      <c r="O53" t="s">
+        <v>104</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>421</v>
+      </c>
+      <c r="X53" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J54" t="s">
+        <v>431</v>
+      </c>
+      <c r="K54" t="s">
+        <v>432</v>
+      </c>
+      <c r="L54" t="s">
+        <v>433</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>357</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>421</v>
+      </c>
+      <c r="X54" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>436</v>
+      </c>
+      <c r="J55" t="s">
+        <v>437</v>
+      </c>
+      <c r="K55" t="s">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s">
+        <v>439</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>357</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>421</v>
+      </c>
+      <c r="X55" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>442</v>
+      </c>
+      <c r="J56" t="s">
+        <v>443</v>
+      </c>
+      <c r="K56" t="s">
+        <v>444</v>
+      </c>
+      <c r="L56" t="s">
+        <v>445</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>446</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>447</v>
+      </c>
+      <c r="X56" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>450</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>451</v>
+      </c>
+      <c r="J57" t="s">
+        <v>452</v>
+      </c>
+      <c r="K57" t="s">
+        <v>453</v>
+      </c>
+      <c r="L57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>446</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>447</v>
+      </c>
+      <c r="X57" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>457</v>
+      </c>
+      <c r="J58" t="s">
         <v>458</v>
+      </c>
+      <c r="K58" t="s">
+        <v>459</v>
+      </c>
+      <c r="L58" t="s">
+        <v>460</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>461</v>
+      </c>
+      <c r="X58" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>466</v>
+      </c>
+      <c r="L59" t="s">
+        <v>467</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>446</v>
+      </c>
+      <c r="O59" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>461</v>
+      </c>
+      <c r="X59" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>469</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>470</v>
+      </c>
+      <c r="J60" t="s">
+        <v>471</v>
+      </c>
+      <c r="K60" t="s">
+        <v>472</v>
+      </c>
+      <c r="L60" t="s">
+        <v>473</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>446</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X60" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>479</v>
+      </c>
+      <c r="K61" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" t="s">
+        <v>481</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>482</v>
+      </c>
+      <c r="O61" t="s">
+        <v>104</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>483</v>
+      </c>
+      <c r="X61" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>486</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>487</v>
+      </c>
+      <c r="J62" t="s">
+        <v>488</v>
+      </c>
+      <c r="K62" t="s">
+        <v>489</v>
+      </c>
+      <c r="L62" t="s">
+        <v>490</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>482</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>491</v>
+      </c>
+      <c r="X62" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>494</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>495</v>
+      </c>
+      <c r="J63" t="s">
+        <v>496</v>
+      </c>
+      <c r="K63" t="s">
+        <v>497</v>
+      </c>
+      <c r="L63" t="s">
+        <v>498</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>482</v>
+      </c>
+      <c r="O63" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>499</v>
+      </c>
+      <c r="X63" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>502</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>503</v>
+      </c>
+      <c r="J64" t="s">
+        <v>504</v>
+      </c>
+      <c r="K64" t="s">
+        <v>505</v>
+      </c>
+      <c r="L64" t="s">
+        <v>506</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>482</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>507</v>
+      </c>
+      <c r="X64" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>511</v>
+      </c>
+      <c r="J65" t="s">
+        <v>512</v>
+      </c>
+      <c r="K65" t="s">
+        <v>513</v>
+      </c>
+      <c r="L65" t="s">
+        <v>514</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>482</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>507</v>
+      </c>
+      <c r="X65" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>516</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>517</v>
+      </c>
+      <c r="J66" t="s">
+        <v>518</v>
+      </c>
+      <c r="K66" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>507</v>
+      </c>
+      <c r="X66" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s">
+        <v>527</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>521</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>507</v>
+      </c>
+      <c r="X67" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>529</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>530</v>
+      </c>
+      <c r="J68" t="s">
+        <v>531</v>
+      </c>
+      <c r="K68" t="s">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s">
+        <v>533</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>521</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>507</v>
+      </c>
+      <c r="X68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" t="s">
+        <v>537</v>
+      </c>
+      <c r="K69" t="s">
+        <v>538</v>
+      </c>
+      <c r="L69" t="s">
+        <v>539</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>521</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>507</v>
+      </c>
+      <c r="X69" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>507</v>
+      </c>
+      <c r="X70" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>548</v>
+      </c>
+      <c r="J71" t="s">
+        <v>543</v>
+      </c>
+      <c r="K71" t="s">
+        <v>549</v>
+      </c>
+      <c r="L71" t="s">
+        <v>550</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>551</v>
+      </c>
+      <c r="X71" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>554</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>555</v>
+      </c>
+      <c r="J72" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" t="s">
+        <v>557</v>
+      </c>
+      <c r="L72" t="s">
+        <v>558</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>521</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>551</v>
+      </c>
+      <c r="X72" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>560</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>561</v>
+      </c>
+      <c r="J73" t="s">
+        <v>562</v>
+      </c>
+      <c r="K73" t="s">
+        <v>563</v>
+      </c>
+      <c r="L73" t="s">
+        <v>564</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>521</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>551</v>
+      </c>
+      <c r="X73" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>566</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>567</v>
+      </c>
+      <c r="J74" t="s">
+        <v>562</v>
+      </c>
+      <c r="K74" t="s">
+        <v>568</v>
+      </c>
+      <c r="L74" t="s">
+        <v>569</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>521</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>551</v>
+      </c>
+      <c r="X74" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>571</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>572</v>
+      </c>
+      <c r="J75" t="s">
+        <v>573</v>
+      </c>
+      <c r="K75" t="s">
+        <v>574</v>
+      </c>
+      <c r="L75" t="s">
+        <v>575</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>521</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>105</v>
+      </c>
+      <c r="X75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>577</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>578</v>
+      </c>
+      <c r="J76" t="s">
+        <v>579</v>
+      </c>
+      <c r="K76" t="s">
+        <v>580</v>
+      </c>
+      <c r="L76" t="s">
+        <v>581</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>582</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>551</v>
+      </c>
+      <c r="X76" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>584</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>585</v>
+      </c>
+      <c r="J77" t="s">
+        <v>586</v>
+      </c>
+      <c r="K77" t="s">
+        <v>587</v>
+      </c>
+      <c r="L77" t="s">
+        <v>588</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>582</v>
+      </c>
+      <c r="O77" t="s">
+        <v>104</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>589</v>
+      </c>
+      <c r="X77" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>592</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>593</v>
+      </c>
+      <c r="J78" t="s">
+        <v>594</v>
+      </c>
+      <c r="K78" t="s">
+        <v>595</v>
+      </c>
+      <c r="L78" t="s">
+        <v>596</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>582</v>
+      </c>
+      <c r="O78" t="s">
+        <v>187</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>551</v>
+      </c>
+      <c r="X78" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>598</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>599</v>
+      </c>
+      <c r="J79" t="s">
+        <v>600</v>
+      </c>
+      <c r="K79" t="s">
+        <v>296</v>
+      </c>
+      <c r="L79" t="s">
+        <v>601</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>582</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>551</v>
+      </c>
+      <c r="X79" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>603</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" t="s">
+        <v>605</v>
+      </c>
+      <c r="K80" t="s">
+        <v>606</v>
+      </c>
+      <c r="L80" t="s">
+        <v>607</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>582</v>
+      </c>
+      <c r="O80" t="s">
+        <v>104</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>551</v>
+      </c>
+      <c r="X80" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>609</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>610</v>
+      </c>
+      <c r="J81" t="s">
+        <v>611</v>
+      </c>
+      <c r="K81" t="s">
+        <v>612</v>
+      </c>
+      <c r="L81" t="s">
+        <v>613</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>614</v>
+      </c>
+      <c r="O81" t="s">
+        <v>104</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>551</v>
+      </c>
+      <c r="X81" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>617</v>
+      </c>
+      <c r="J82" t="s">
+        <v>618</v>
+      </c>
+      <c r="K82" t="s">
+        <v>619</v>
+      </c>
+      <c r="L82" t="s">
+        <v>620</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>614</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>551</v>
+      </c>
+      <c r="X82" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>622</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>623</v>
+      </c>
+      <c r="J83" t="s">
+        <v>624</v>
+      </c>
+      <c r="K83" t="s">
+        <v>625</v>
+      </c>
+      <c r="L83" t="s">
+        <v>626</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>614</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>551</v>
+      </c>
+      <c r="X83" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
